--- a/기초/지출기안서.xlsx
+++ b/기초/지출기안서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D54D1-3CAB-42E5-B6C7-342483401523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB32B3-1288-4C00-91B4-12C5901D80E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{589941D7-D5E9-4052-B8DC-C718CF2C02BD}"/>
   </bookViews>
@@ -236,57 +236,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -304,6 +307,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D7103B-F381-4736-10B4-CBD4CC328ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="209550"/>
+          <a:ext cx="3133725" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,201 +688,214 @@
     <col min="3" max="3" width="31.875" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="4" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <v>680</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="7">
         <f>E13*D13</f>
         <v>13600</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>25</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="8">
         <v>8000</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="7">
         <f t="shared" ref="F14:F21" si="0">E14*D14</f>
         <v>200000</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13">
+    <row r="17" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
+    <row r="18" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13">
+    <row r="19" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+    <row r="20" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="13">
+    <row r="21" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="16">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10">
         <f>SUM(F13:F21)</f>
         <v>213600</v>
       </c>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="17"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -824,6 +906,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/기초/지출기안서.xlsx
+++ b/기초/지출기안서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB32B3-1288-4C00-91B4-12C5901D80E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8609F530-7C71-4429-83B2-6C6301FEC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{589941D7-D5E9-4052-B8DC-C718CF2C02BD}"/>
+    <workbookView xWindow="8280" yWindow="3285" windowWidth="28800" windowHeight="15345" xr2:uid="{589941D7-D5E9-4052-B8DC-C718CF2C02BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>지출 기안서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +110,22 @@
   </si>
   <si>
     <t>식대비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +286,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,14 +301,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -320,16 +333,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1419225</xdr:colOff>
+      <xdr:colOff>1400175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D7103B-F381-4736-10B4-CBD4CC328ECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05ED504-81CD-BD28-DC30-46DEFFCEBC54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,7 +366,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3686175" y="209550"/>
-          <a:ext cx="3133725" cy="838200"/>
+          <a:ext cx="3114675" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,10 +688,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,14 +702,15 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="4" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -715,8 +729,8 @@
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -740,13 +754,13 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
@@ -872,37 +886,58 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="10">
         <f>SUM(F13:F21)</f>
         <v>213600</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="16"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B22:E22"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
